--- a/Res_Trans_Flota_Esc_3.xlsx
+++ b/Res_Trans_Flota_Esc_3.xlsx
@@ -559,7 +559,7 @@
         <v>2025</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
@@ -575,7 +575,7 @@
         <v>2026</v>
       </c>
       <c r="D8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -591,7 +591,7 @@
         <v>2027</v>
       </c>
       <c r="D9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -607,7 +607,7 @@
         <v>2028</v>
       </c>
       <c r="D10" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -623,7 +623,7 @@
         <v>2029</v>
       </c>
       <c r="D11" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12.97</v>
+        <v>13.91</v>
       </c>
     </row>
     <row r="3">
@@ -749,7 +749,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.16</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="4">
@@ -769,7 +769,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.81</v>
+        <v>3.27</v>
       </c>
     </row>
     <row r="6">
@@ -779,7 +779,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.25</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="7">
@@ -799,7 +799,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18</v>
+        <v>19.61</v>
       </c>
     </row>
     <row r="9">
@@ -809,7 +809,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.11</v>
+        <v>8.289999999999999</v>
       </c>
     </row>
     <row r="10">
@@ -819,7 +819,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>18</v>
+        <v>19.61</v>
       </c>
     </row>
     <row r="11">
@@ -829,7 +829,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.17</v>
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
@@ -946,19 +946,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E5" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -990,19 +990,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="C7" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E7" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="C2" t="n">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1119,16 +1119,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="C5" t="n">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="D5" t="n">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="E5" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="F5" t="n">
         <v>55</v>
@@ -1185,16 +1185,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="C8" t="n">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="D8" t="n">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="E8" t="n">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="F8" t="n">
         <v>65</v>
@@ -1248,19 +1248,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E2" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1358,19 +1358,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="C7" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E7" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1443,19 +1443,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1487,19 +1487,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1572,16 +1572,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D3" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E3" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F3" t="n">
         <v>23</v>
@@ -1616,16 +1616,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C5" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D5" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="E5" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F5" t="n">
         <v>33</v>
@@ -1723,16 +1723,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F4" t="n">
         <v>12</v>
@@ -1745,13 +1745,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -1767,16 +1767,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F6" t="n">
         <v>4</v>
@@ -1789,10 +1789,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>3</v>
@@ -1811,7 +1811,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
         <v>6</v>
@@ -1833,13 +1833,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1855,16 +1855,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="C10" t="n">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="D10" t="n">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="E10" t="n">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="F10" t="n">
         <v>65</v>
@@ -1951,7 +1951,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>546629.9684821211</v>
+        <v>103583.9974090909</v>
       </c>
       <c r="E2" t="n">
         <v>675854.2811856969</v>
@@ -1973,7 +1973,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>440009.3959621211</v>
+        <v>80565.33131818178</v>
       </c>
       <c r="E3" t="n">
         <v>506890.7108892727</v>
@@ -1995,7 +1995,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>316927.8556321212</v>
+        <v>11509.33304545454</v>
       </c>
       <c r="E4" t="n">
         <v>337927.1405928484</v>
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>149968.6833454545</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>168963.5702964242</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>806929.9534736073</v>
+        <v>152909.7104610389</v>
       </c>
       <c r="E7" t="n">
         <v>997689.653178886</v>
@@ -2083,7 +2083,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>649537.6797536074</v>
+        <v>118929.7748030303</v>
       </c>
       <c r="E8" t="n">
         <v>748267.2398841644</v>
@@ -2105,7 +2105,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>467845.8821236074</v>
+        <v>16989.96782900432</v>
       </c>
       <c r="E9" t="n">
         <v>498844.8265894428</v>
@@ -2127,7 +2127,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>221382.3420813852</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>249422.4132947214</v>
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>46593697.31347605</v>
+        <v>8829302.636298699</v>
       </c>
       <c r="E12" t="n">
         <v>57608531.58678084</v>
@@ -2193,7 +2193,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>37505562.79867604</v>
+        <v>6867235.383787877</v>
       </c>
       <c r="E13" t="n">
         <v>43206398.69008563</v>
@@ -2215,7 +2215,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>27014326.74197604</v>
+        <v>981033.626255411</v>
       </c>
       <c r="E14" t="n">
         <v>28804265.79339041</v>
@@ -2237,7 +2237,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>12783044.9137316</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>14402132.89669521</v>
@@ -2397,7 +2397,7 @@
         <v>2025</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
@@ -2413,7 +2413,7 @@
         <v>2026</v>
       </c>
       <c r="D8" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
@@ -2429,7 +2429,7 @@
         <v>2027</v>
       </c>
       <c r="D9" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10">
@@ -2445,7 +2445,7 @@
         <v>2028</v>
       </c>
       <c r="D10" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11">
@@ -2833,7 +2833,7 @@
         <v>2025</v>
       </c>
       <c r="D17" t="n">
-        <v>10</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18">
@@ -2849,7 +2849,7 @@
         <v>2026</v>
       </c>
       <c r="D18" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -2865,7 +2865,7 @@
         <v>2027</v>
       </c>
       <c r="D19" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -2881,7 +2881,7 @@
         <v>2028</v>
       </c>
       <c r="D20" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -2897,7 +2897,7 @@
         <v>2029</v>
       </c>
       <c r="D21" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -3246,7 +3246,7 @@
         <v>3</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -3265,7 +3265,7 @@
         <v>3</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -3360,7 +3360,7 @@
         <v>4</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -3379,7 +3379,7 @@
         <v>4</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -3417,7 +3417,7 @@
         <v>5</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23">
@@ -3493,7 +3493,7 @@
         <v>5</v>
       </c>
       <c r="E26" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -3512,7 +3512,7 @@
         <v>6</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28">
@@ -3531,7 +3531,7 @@
         <v>6</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -3588,7 +3588,7 @@
         <v>6</v>
       </c>
       <c r="E31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3607,7 +3607,7 @@
         <v>7</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33">
@@ -3702,7 +3702,7 @@
         <v>8</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38">
@@ -3759,7 +3759,7 @@
         <v>8</v>
       </c>
       <c r="E40" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3797,7 +3797,7 @@
         <v>9</v>
       </c>
       <c r="E42" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43">
@@ -3816,7 +3816,7 @@
         <v>9</v>
       </c>
       <c r="E43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3835,7 +3835,7 @@
         <v>9</v>
       </c>
       <c r="E44" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -3854,7 +3854,7 @@
         <v>9</v>
       </c>
       <c r="E45" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -3873,7 +3873,7 @@
         <v>9</v>
       </c>
       <c r="E46" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -3911,7 +3911,7 @@
         <v>10</v>
       </c>
       <c r="E48" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -3930,7 +3930,7 @@
         <v>10</v>
       </c>
       <c r="E49" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -11362,7 +11362,7 @@
         <v>3</v>
       </c>
       <c r="E18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -11381,7 +11381,7 @@
         <v>3</v>
       </c>
       <c r="E19" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -11476,7 +11476,7 @@
         <v>4</v>
       </c>
       <c r="E24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -11495,7 +11495,7 @@
         <v>4</v>
       </c>
       <c r="E25" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -11533,7 +11533,7 @@
         <v>5</v>
       </c>
       <c r="E27" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -11590,7 +11590,7 @@
         <v>5</v>
       </c>
       <c r="E30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -11628,7 +11628,7 @@
         <v>6</v>
       </c>
       <c r="E32" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -11647,7 +11647,7 @@
         <v>6</v>
       </c>
       <c r="E33" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -11723,7 +11723,7 @@
         <v>7</v>
       </c>
       <c r="E37" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -11742,7 +11742,7 @@
         <v>7</v>
       </c>
       <c r="E38" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -11761,7 +11761,7 @@
         <v>7</v>
       </c>
       <c r="E39" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -11818,7 +11818,7 @@
         <v>8</v>
       </c>
       <c r="E42" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -11837,7 +11837,7 @@
         <v>8</v>
       </c>
       <c r="E43" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -11856,7 +11856,7 @@
         <v>8</v>
       </c>
       <c r="E44" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -11875,7 +11875,7 @@
         <v>8</v>
       </c>
       <c r="E45" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -11913,7 +11913,7 @@
         <v>9</v>
       </c>
       <c r="E47" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -11932,7 +11932,7 @@
         <v>9</v>
       </c>
       <c r="E48" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -15998,7 +15998,7 @@
         <v>0</v>
       </c>
       <c r="E262" t="n">
-        <v>10</v>
+        <v>46</v>
       </c>
     </row>
     <row r="263">
@@ -16017,7 +16017,7 @@
         <v>0</v>
       </c>
       <c r="E263" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264">
@@ -16036,7 +16036,7 @@
         <v>0</v>
       </c>
       <c r="E264" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="265">
@@ -16055,7 +16055,7 @@
         <v>0</v>
       </c>
       <c r="E265" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266">
@@ -16074,7 +16074,7 @@
         <v>0</v>
       </c>
       <c r="E266" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267">
@@ -16112,7 +16112,7 @@
         <v>1</v>
       </c>
       <c r="E268" t="n">
-        <v>10</v>
+        <v>46</v>
       </c>
     </row>
     <row r="269">
@@ -16131,7 +16131,7 @@
         <v>1</v>
       </c>
       <c r="E269" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270">
@@ -16150,7 +16150,7 @@
         <v>1</v>
       </c>
       <c r="E270" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="271">
@@ -16169,7 +16169,7 @@
         <v>1</v>
       </c>
       <c r="E271" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272">
@@ -16226,7 +16226,7 @@
         <v>2</v>
       </c>
       <c r="E274" t="n">
-        <v>10</v>
+        <v>46</v>
       </c>
     </row>
     <row r="275">
@@ -16245,7 +16245,7 @@
         <v>2</v>
       </c>
       <c r="E275" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276">
@@ -16264,7 +16264,7 @@
         <v>2</v>
       </c>
       <c r="E276" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="277">
@@ -16340,7 +16340,7 @@
         <v>3</v>
       </c>
       <c r="E280" t="n">
-        <v>10</v>
+        <v>46</v>
       </c>
     </row>
     <row r="281">
@@ -16359,7 +16359,7 @@
         <v>3</v>
       </c>
       <c r="E281" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282">
@@ -16454,7 +16454,7 @@
         <v>4</v>
       </c>
       <c r="E286" t="n">
-        <v>10</v>
+        <v>46</v>
       </c>
     </row>
     <row r="287">
@@ -20289,7 +20289,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53">
@@ -20529,7 +20529,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -20649,7 +20649,7 @@
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -21249,7 +21249,7 @@
         <v>2</v>
       </c>
       <c r="F92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93">
@@ -21273,7 +21273,7 @@
         <v>2</v>
       </c>
       <c r="F93" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="94">
@@ -21369,7 +21369,7 @@
         <v>2</v>
       </c>
       <c r="F97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -21873,7 +21873,7 @@
         <v>2</v>
       </c>
       <c r="F118" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -22233,7 +22233,7 @@
         <v>3</v>
       </c>
       <c r="F133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
@@ -22257,7 +22257,7 @@
         <v>3</v>
       </c>
       <c r="F134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
@@ -22473,7 +22473,7 @@
         <v>3</v>
       </c>
       <c r="F143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
@@ -22857,7 +22857,7 @@
         <v>3</v>
       </c>
       <c r="F159" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
@@ -23217,7 +23217,7 @@
         <v>4</v>
       </c>
       <c r="F174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
@@ -23241,7 +23241,7 @@
         <v>4</v>
       </c>
       <c r="F175" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
@@ -24129,7 +24129,7 @@
         <v>5</v>
       </c>
       <c r="F212" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213">
@@ -24201,7 +24201,7 @@
         <v>5</v>
       </c>
       <c r="F215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216">
@@ -24249,7 +24249,7 @@
         <v>5</v>
       </c>
       <c r="F217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
@@ -24369,7 +24369,7 @@
         <v>5</v>
       </c>
       <c r="F222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223">
@@ -25113,7 +25113,7 @@
         <v>6</v>
       </c>
       <c r="F253" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254">
@@ -25209,7 +25209,7 @@
         <v>6</v>
       </c>
       <c r="F257" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258">
@@ -26049,7 +26049,7 @@
         <v>7</v>
       </c>
       <c r="F292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293">
@@ -26097,7 +26097,7 @@
         <v>7</v>
       </c>
       <c r="F294" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295">
@@ -26193,7 +26193,7 @@
         <v>7</v>
       </c>
       <c r="F298" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299">
@@ -26217,7 +26217,7 @@
         <v>7</v>
       </c>
       <c r="F299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300">
@@ -26313,7 +26313,7 @@
         <v>7</v>
       </c>
       <c r="F303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304">
@@ -26433,7 +26433,7 @@
         <v>7</v>
       </c>
       <c r="F308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309">
@@ -26649,7 +26649,7 @@
         <v>7</v>
       </c>
       <c r="F317" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318">
@@ -26697,7 +26697,7 @@
         <v>7</v>
       </c>
       <c r="F319" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320">
@@ -27057,7 +27057,7 @@
         <v>8</v>
       </c>
       <c r="F334" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335">
@@ -27081,7 +27081,7 @@
         <v>8</v>
       </c>
       <c r="F335" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336">
@@ -27153,7 +27153,7 @@
         <v>8</v>
       </c>
       <c r="F338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339">
@@ -27297,7 +27297,7 @@
         <v>8</v>
       </c>
       <c r="F344" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345">
@@ -27321,7 +27321,7 @@
         <v>8</v>
       </c>
       <c r="F345" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346">
@@ -27609,7 +27609,7 @@
         <v>8</v>
       </c>
       <c r="F357" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358">
@@ -27633,7 +27633,7 @@
         <v>8</v>
       </c>
       <c r="F358" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359">
@@ -28113,7 +28113,7 @@
         <v>9</v>
       </c>
       <c r="F378" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379">
@@ -28449,7 +28449,7 @@
         <v>9</v>
       </c>
       <c r="F392" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393">
@@ -69153,7 +69153,7 @@
         <v>0</v>
       </c>
       <c r="F2088" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2089">
@@ -69177,7 +69177,7 @@
         <v>0</v>
       </c>
       <c r="F2089" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2090">
@@ -69201,7 +69201,7 @@
         <v>0</v>
       </c>
       <c r="F2090" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2091">
@@ -69225,7 +69225,7 @@
         <v>0</v>
       </c>
       <c r="F2091" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2092">
@@ -69249,7 +69249,7 @@
         <v>0</v>
       </c>
       <c r="F2092" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2093">
@@ -69345,7 +69345,7 @@
         <v>0</v>
       </c>
       <c r="F2096" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2097">
@@ -69369,7 +69369,7 @@
         <v>0</v>
       </c>
       <c r="F2097" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2098">
@@ -69417,7 +69417,7 @@
         <v>0</v>
       </c>
       <c r="F2099" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2100">
@@ -69441,7 +69441,7 @@
         <v>0</v>
       </c>
       <c r="F2100" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2101">
@@ -69489,7 +69489,7 @@
         <v>0</v>
       </c>
       <c r="F2102" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2103">
@@ -69609,7 +69609,7 @@
         <v>0</v>
       </c>
       <c r="F2107" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2108">
@@ -69633,7 +69633,7 @@
         <v>0</v>
       </c>
       <c r="F2108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2109">
@@ -69729,7 +69729,7 @@
         <v>0</v>
       </c>
       <c r="F2112" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2113">
@@ -69777,7 +69777,7 @@
         <v>0</v>
       </c>
       <c r="F2114" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2115">
@@ -69801,7 +69801,7 @@
         <v>0</v>
       </c>
       <c r="F2115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2116">
@@ -69849,7 +69849,7 @@
         <v>0</v>
       </c>
       <c r="F2117" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2118">
@@ -69921,7 +69921,7 @@
         <v>0</v>
       </c>
       <c r="F2120" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2121">
@@ -70113,7 +70113,7 @@
         <v>1</v>
       </c>
       <c r="F2128" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2129">
@@ -70137,7 +70137,7 @@
         <v>1</v>
       </c>
       <c r="F2129" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2130">
@@ -70161,7 +70161,7 @@
         <v>1</v>
       </c>
       <c r="F2130" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2131">
@@ -70185,7 +70185,7 @@
         <v>1</v>
       </c>
       <c r="F2131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2132">
@@ -70233,7 +70233,7 @@
         <v>1</v>
       </c>
       <c r="F2133" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2134">
@@ -70353,7 +70353,7 @@
         <v>1</v>
       </c>
       <c r="F2138" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2139">
@@ -70425,7 +70425,7 @@
         <v>1</v>
       </c>
       <c r="F2141" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2142">
@@ -70473,7 +70473,7 @@
         <v>1</v>
       </c>
       <c r="F2143" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2144">
@@ -70521,7 +70521,7 @@
         <v>1</v>
       </c>
       <c r="F2145" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2146">
@@ -70593,7 +70593,7 @@
         <v>1</v>
       </c>
       <c r="F2148" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2149">
@@ -70617,7 +70617,7 @@
         <v>1</v>
       </c>
       <c r="F2149" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2150">
@@ -70833,7 +70833,7 @@
         <v>1</v>
       </c>
       <c r="F2158" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2159">
@@ -70905,7 +70905,7 @@
         <v>1</v>
       </c>
       <c r="F2161" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2162">
@@ -71097,7 +71097,7 @@
         <v>2</v>
       </c>
       <c r="F2169" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2170">
@@ -71121,7 +71121,7 @@
         <v>2</v>
       </c>
       <c r="F2170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2171">
@@ -71145,7 +71145,7 @@
         <v>2</v>
       </c>
       <c r="F2171" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2172">
@@ -71217,7 +71217,7 @@
         <v>2</v>
       </c>
       <c r="F2174" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2175">
@@ -71337,7 +71337,7 @@
         <v>2</v>
       </c>
       <c r="F2179" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2180">
@@ -71385,7 +71385,7 @@
         <v>2</v>
       </c>
       <c r="F2181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2182">
@@ -71457,7 +71457,7 @@
         <v>2</v>
       </c>
       <c r="F2184" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2185">
@@ -71505,7 +71505,7 @@
         <v>2</v>
       </c>
       <c r="F2186" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2187">
@@ -71577,7 +71577,7 @@
         <v>2</v>
       </c>
       <c r="F2189" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2190">
@@ -71601,7 +71601,7 @@
         <v>2</v>
       </c>
       <c r="F2190" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2191">
@@ -71697,7 +71697,7 @@
         <v>2</v>
       </c>
       <c r="F2194" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2195">
@@ -71721,7 +71721,7 @@
         <v>2</v>
       </c>
       <c r="F2195" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2196">
@@ -71817,7 +71817,7 @@
         <v>2</v>
       </c>
       <c r="F2199" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2200">
@@ -72081,7 +72081,7 @@
         <v>3</v>
       </c>
       <c r="F2210" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2211">
@@ -72105,7 +72105,7 @@
         <v>3</v>
       </c>
       <c r="F2211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2212">
@@ -72201,7 +72201,7 @@
         <v>3</v>
       </c>
       <c r="F2215" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2216">
@@ -72321,7 +72321,7 @@
         <v>3</v>
       </c>
       <c r="F2220" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2221">
@@ -72345,7 +72345,7 @@
         <v>3</v>
       </c>
       <c r="F2221" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2222">
@@ -72441,7 +72441,7 @@
         <v>3</v>
       </c>
       <c r="F2225" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2226">
@@ -72561,7 +72561,7 @@
         <v>3</v>
       </c>
       <c r="F2230" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2231">
@@ -72585,7 +72585,7 @@
         <v>3</v>
       </c>
       <c r="F2231" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2232">
@@ -72681,7 +72681,7 @@
         <v>3</v>
       </c>
       <c r="F2235" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2236">
@@ -72801,7 +72801,7 @@
         <v>3</v>
       </c>
       <c r="F2240" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2241">
@@ -73065,7 +73065,7 @@
         <v>4</v>
       </c>
       <c r="F2251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2252">
@@ -73185,7 +73185,7 @@
         <v>4</v>
       </c>
       <c r="F2256" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2257">
@@ -73305,7 +73305,7 @@
         <v>4</v>
       </c>
       <c r="F2261" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2262">
@@ -73425,7 +73425,7 @@
         <v>4</v>
       </c>
       <c r="F2266" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2267">
@@ -73545,7 +73545,7 @@
         <v>4</v>
       </c>
       <c r="F2271" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2272">
@@ -73785,7 +73785,7 @@
         <v>4</v>
       </c>
       <c r="F2281" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2282">
@@ -99919,7 +99919,7 @@
         <v>2025</v>
       </c>
       <c r="C2" t="n">
-        <v>5299999.241342141</v>
+        <v>13940000</v>
       </c>
     </row>
     <row r="3">
@@ -99930,7 +99930,7 @@
         <v>2026</v>
       </c>
       <c r="C3" t="n">
-        <v>1890576.115719223</v>
+        <v>472643.8392653414</v>
       </c>
     </row>
     <row r="4">
@@ -99941,7 +99941,7 @@
         <v>2027</v>
       </c>
       <c r="C4" t="n">
-        <v>2330852.089094211</v>
+        <v>1398511.253456526</v>
       </c>
     </row>
     <row r="5">
@@ -99952,7 +99952,7 @@
         <v>2028</v>
       </c>
       <c r="C5" t="n">
-        <v>3223316.648621456</v>
+        <v>255236.9034729612</v>
       </c>
     </row>
     <row r="6">
@@ -99963,7 +99963,7 @@
         <v>2029</v>
       </c>
       <c r="C6" t="n">
-        <v>2985495.130955423</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Res_Trans_Flota_Esc_3.xlsx
+++ b/Res_Trans_Flota_Esc_3.xlsx
@@ -829,7 +829,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Res_Trans_Flota_Esc_3.xlsx
+++ b/Res_Trans_Flota_Esc_3.xlsx
@@ -779,7 +779,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.39</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="7">
@@ -799,7 +799,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19.61</v>
+        <v>19.58</v>
       </c>
     </row>
     <row r="9">
@@ -819,7 +819,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.61</v>
+        <v>19.58</v>
       </c>
     </row>
     <row r="11">
